--- a/data/trans_bre/P44D-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P44D-Dificultad-trans_bre.xlsx
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.435187251332706</v>
+        <v>-2.526012395107988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.644241849426778</v>
+        <v>-6.368813918149828</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.01352146773369</v>
+        <v>18.07354970637399</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.88780566436618</v>
+        <v>20.88648853520831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.52234989028708</v>
+        <v>1.536794935821983</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -710,20 +710,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.232953772691458</v>
+        <v>-6.430534614842151</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-26.41959658063435</v>
+        <v>-25.55910962123</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.16138163181386</v>
+        <v>-4.332838922614565</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.800680977931853</v>
+        <v>-0.7183905955688764</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.8454955567153888</v>
+        <v>-0.8790077678030709</v>
       </c>
     </row>
     <row r="9">
@@ -734,18 +734,18 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>27.83777948201692</v>
+        <v>28.61174334519126</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.171627033532332</v>
+        <v>2.029486576226613</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.717079292431239</v>
+        <v>2.020478725408899</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>2.677152672827746</v>
+        <v>2.156470097597911</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +766,7 @@
         <v>16.30486238271896</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8534481282699347</v>
+        <v>0.8534481282699389</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>7.121930271178013</v>
@@ -775,7 +775,7 @@
         <v>2.285172350490829</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1008963391643977</v>
+        <v>0.1008963391643982</v>
       </c>
     </row>
     <row r="11">
@@ -786,20 +786,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.214553193208385</v>
+        <v>5.058550803689364</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.906186523872025</v>
+        <v>0.837219143180971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.128280851731207</v>
+        <v>-4.980000546294058</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>-0.4560694805768205</v>
+        <v>-0.3432504082810615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.445941549519936</v>
+        <v>-0.4461002188862042</v>
       </c>
     </row>
     <row r="12">
@@ -810,20 +810,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>49.33888104911223</v>
+        <v>49.17602198779822</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>36.26757775447648</v>
+        <v>38.20926238876608</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.247495930792991</v>
+        <v>5.990009315157643</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="n">
-        <v>17.8008457866077</v>
+        <v>17.22468796883102</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.118021711272088</v>
+        <v>1.012739016637428</v>
       </c>
     </row>
     <row r="13">
@@ -844,7 +844,7 @@
         <v>-21.83931499876075</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-4.994054710284784</v>
+        <v>-4.994054710284787</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2698053286442429</v>
@@ -853,7 +853,7 @@
         <v>-0.6298168694122915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2541481466616779</v>
+        <v>-0.254148146661678</v>
       </c>
     </row>
     <row r="14">
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-45.27824290221499</v>
+        <v>-43.97959928176889</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-43.14414381135783</v>
+        <v>-43.42922454200221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.4465508631889</v>
+        <v>-12.41846262213503</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.815687182207492</v>
+        <v>-0.8004093739375711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.517132127957261</v>
+        <v>-0.5207617014246058</v>
       </c>
     </row>
     <row r="15">
@@ -890,22 +890,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.68909551540497</v>
+        <v>24.50742855657218</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.412207132843719</v>
+        <v>5.673230668911168</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.68020188569826</v>
+        <v>2.750768374168513</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.012860059182079</v>
+        <v>1.248232946383501</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3790408350277037</v>
+        <v>0.5487433221164726</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1214745136195303</v>
+        <v>0.1835726612185885</v>
       </c>
     </row>
     <row r="16">
@@ -946,22 +946,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.371601004566834</v>
+        <v>-7.090993664596581</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.5531615609168</v>
+        <v>-11.66505135404076</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.431375765513953</v>
+        <v>-5.392480632604162</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3929330458650014</v>
+        <v>-0.4004687745123901</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6235597255325074</v>
+        <v>-0.6403428472335423</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4690066659464568</v>
+        <v>-0.4713897299861407</v>
       </c>
     </row>
     <row r="18">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.14318527877999</v>
+        <v>15.22963519761536</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.913412414854725</v>
+        <v>6.762176179768107</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2192006867621012</v>
+        <v>-0.05353401336319537</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.963833638914511</v>
+        <v>1.931583658086969</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5862052648334688</v>
+        <v>0.619782121280587</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03176219280156965</v>
+        <v>-0.006277725281344949</v>
       </c>
     </row>
     <row r="19">
